--- a/Gantt Musifan.xlsx
+++ b/Gantt Musifan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guill\Desktop\Projet final\ProjetFinalTeamParis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{821E137E-3778-4ACD-9297-FB1030716595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254E635-BFCE-49A4-9F8B-C941086F7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ACTIVITÉ</t>
   </si>
@@ -173,6 +173,45 @@
   <si>
     <t>MusiFan</t>
   </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Préparation présentation</t>
+  </si>
+  <si>
+    <t>PLANIFICATION PROJET MUSIFAN</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>DTO</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +223,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -371,6 +410,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="39">
@@ -645,15 +713,6 @@
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -754,6 +813,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -819,14 +893,14 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,7 +926,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,9 +942,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -880,9 +951,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,77 +966,92 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1419,15 +1502,15 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
@@ -1438,152 +1521,159 @@
     <col min="13" max="13" width="2.77734375" style="1"/>
     <col min="14" max="14" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="27" width="2.77734375" style="1"/>
+    <col min="43" max="43" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="41">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="21" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="25" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="28" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
       <c r="AG2" s="30"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-    </row>
-    <row r="3" spans="2:67" s="6" customFormat="1" ht="58.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+    </row>
+    <row r="3" spans="1:67" s="5" customFormat="1" ht="58.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="16">
         <v>44516</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="20">
         <v>44522</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="20">
         <v>44526</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="20">
         <v>44531</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="20">
         <v>44539</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="20">
         <v>44540</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="20">
         <v>44543</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="20">
         <v>44544</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="20">
         <v>44545</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="20">
         <v>44546</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+    </row>
+    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1765,290 +1855,353 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="37">
         <v>2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="37">
         <v>2</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="37">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="37">
         <v>3</v>
       </c>
-      <c r="G6" s="36">
+      <c r="D7" s="37">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3</v>
+      </c>
+      <c r="F7" s="37">
+        <v>2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37">
+        <v>6</v>
+      </c>
+      <c r="F8" s="37">
+        <v>3</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="37">
+        <v>4</v>
+      </c>
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>4</v>
+      </c>
+      <c r="F9" s="37">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="37">
+        <v>5</v>
+      </c>
+      <c r="D10" s="37">
+        <v>4</v>
+      </c>
+      <c r="E10" s="37">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37">
+        <v>5</v>
+      </c>
+      <c r="G10" s="38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="35">
-        <v>3</v>
-      </c>
-      <c r="D7" s="35">
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="37">
+        <v>9</v>
+      </c>
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E7" s="35">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2</v>
-      </c>
-      <c r="G7" s="36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="35">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35">
-        <v>2</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="E11" s="37">
+        <v>9</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="37">
         <v>10</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="37">
         <v>10</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="37">
         <v>1</v>
       </c>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="G12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="31"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AI2:AQ2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:BO31">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PourcentageAccompli</formula>
     </cfRule>
@@ -2074,7 +2227,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B32:BO32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -2105,8 +2258,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez la période à mettre en surbrillance dans H2. Une légende de graphique se trouve dans les cellules J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="40" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
